--- a/data/trans_dic/P78C2_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78C2_2023-Provincia-trans_dic.xlsx
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,55%</t>
+          <t>35,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>79,46%</t>
+          <t>79,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>56,98%</t>
+          <t>56,73%</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,11; 100,0</t>
+          <t>23,16; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,92; 90,06</t>
+          <t>17,96; 90,16</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>14,3%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,42</t>
+          <t>0,0; 75,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,56</t>
+          <t>0,0; 57,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 44,06</t>
+          <t>2,71; 43,87</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>69,37%</t>
+          <t>69,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>35,81%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,05%</t>
+          <t>47,27%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 97,79</t>
+          <t>0,0; 98,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,12; 68,5</t>
+          <t>9,68; 69,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,39; 74,15</t>
+          <t>16,99; 75,5</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>89,24%</t>
+          <t>88,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>44,52%</t>
+          <t>44,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>61,08%</t>
+          <t>61,55%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>45,79; 100,0</t>
+          <t>53,45; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,29; 81,84</t>
+          <t>8,72; 81,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,18; 86,74</t>
+          <t>22,92; 86,41</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>71,36%</t>
+          <t>72,1%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>69,14%</t>
+          <t>68,75%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>69,88%</t>
+          <t>69,9%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,44; 100,0</t>
+          <t>5,45; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,17; 91,96</t>
+          <t>29,32; 91,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>43,09; 90,03</t>
+          <t>43,41; 90,02</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>91,97%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>97,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>94,59%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77,33; 100,0</t>
+          <t>76,86; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>87,16; 100,0</t>
+          <t>86,48; 100,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>85,93; 98,7</t>
+          <t>85,39; 98,65</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>76,36%</t>
+          <t>74,92%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>66,58%</t>
+          <t>62,61%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>70,69%</t>
+          <t>67,76%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>61,33; 87,38</t>
+          <t>59,12; 86,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>52,95; 77,58</t>
+          <t>46,81; 75,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>58,58; 78,68</t>
+          <t>53,7; 76,69</t>
         </is>
       </c>
     </row>
